--- a/config_4.6/game_module_config_cjj.xlsx
+++ b/config_4.6/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1005">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4118,9 +4118,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
     <t>通用礼包皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4204,11 +4201,44 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_010_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_011</t>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_011_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_052_qfhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_052_QFHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月12日 23:59:59</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4875,13 +4905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ327"/>
+  <dimension ref="A1:AJ328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11901,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12832,7 +12862,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12962,7 +12992,7 @@
         <v>999</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12974,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12982,10 +13012,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12997,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13005,10 +13035,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13020,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13028,10 +13058,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>983</v>
+      </c>
+      <c r="C315" s="50" t="s">
         <v>984</v>
-      </c>
-      <c r="C315" s="50" t="s">
-        <v>985</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13054,7 +13084,7 @@
         <v>1000</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13074,10 +13104,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>986</v>
+      </c>
+      <c r="C317" s="50" t="s">
         <v>987</v>
-      </c>
-      <c r="C317" s="50" t="s">
-        <v>988</v>
       </c>
       <c r="D317" s="49" t="s">
         <v>975</v>
@@ -13100,10 +13130,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>998</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>977</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>978</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13306,25 +13336,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="C326" t="s">
         <v>990</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="D326" s="18" t="s">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
         <v>992</v>
-      </c>
-      <c r="E326">
-        <v>1</v>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="I326" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="30" customFormat="1" ht="16.5">
@@ -13332,13 +13362,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="C327" s="36" t="s">
         <v>994</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="D327" s="35" t="s">
         <v>995</v>
-      </c>
-      <c r="D327" s="35" t="s">
-        <v>996</v>
       </c>
       <c r="E327" s="30">
         <v>1</v>
@@ -13351,6 +13381,32 @@
       </c>
       <c r="I327" s="37" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="I328" s="9" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.6/game_module_config_cjj.xlsx
+++ b/config_4.6/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4239,6 +4239,34 @@
       </rPr>
       <t>021年4月12日 23:59:59</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/ act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4905,13 +4933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ328"/>
+  <dimension ref="A1:AJ330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K332" sqref="K332"/>
+      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13409,6 +13437,55 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="329" spans="1:9" ht="16.5">
+      <c r="A329" s="16">
+        <v>328</v>
+      </c>
+      <c r="B329" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
+      <c r="B330" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
